--- a/market/project1/100.Project/01.semiProject/file/seoul_starbucks_df.xlsx
+++ b/market/project1/100.Project/01.semiProject/file/seoul_starbucks_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F612"/>
+  <dimension ref="A1:F611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalWT</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10147,7 +10147,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -11555,7 +11555,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -11939,7 +11939,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -12067,7 +12067,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -12259,7 +12259,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -12739,7 +12739,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -12867,7 +12867,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -13027,7 +13027,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -13059,7 +13059,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -13315,7 +13315,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -13507,7 +13507,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -13699,7 +13699,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -13827,7 +13827,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -13987,7 +13987,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -14339,7 +14339,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -14659,7 +14659,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -14755,7 +14755,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalWT</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -15107,7 +15107,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -15235,7 +15235,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -15363,7 +15363,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -15412,27 +15412,27 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>동묘앞역</t>
+          <t>숭례문북창</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>37.572700</t>
+          <t>37.561725</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>127.016072</t>
+          <t>126.976838</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>서울특별시 종로구 종로 344 (숭인동, 대우디오빌) 101호 일부, 201호 일부</t>
+          <t>서울특별시 중구 세종대로12길 12 (남대문로4가)</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -15444,27 +15444,27 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>숭례문북창</t>
+          <t>을지로4가역</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>37.561725</t>
+          <t>37.566682</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>126.976838</t>
+          <t>126.997285</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로12길 12 (남대문로4가)</t>
+          <t>서울특별시 중구 을지로 170 (을지로4가)</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -15476,27 +15476,27 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>을지로4가역</t>
+          <t>동대문두타</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>37.566682</t>
+          <t>37.56892512604548</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>126.997285</t>
+          <t>127.00878383484597</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 170 (을지로4가)</t>
+          <t>서울특별시 중구 장충단로 275 (을지로6가)</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -15508,27 +15508,27 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>동대문두타</t>
+          <t>대한상공회의소R</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>37.56892512604548</t>
+          <t>37.560938</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>127.00878383484597</t>
+          <t>126.973702</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>서울특별시 중구 장충단로 275 (을지로6가)</t>
+          <t>서울특별시 중구 세종대로 39 (남대문로4가) 1층</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -15540,27 +15540,27 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>대한상공회의소R</t>
+          <t>국립중앙의료원</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>37.560938</t>
+          <t>37.5665160</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>126.973702</t>
+          <t>127.0062376</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 39 (남대문로4가) 1층</t>
+          <t>서울특별시 중구 을지로 251 (을지로6가)</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -15572,27 +15572,27 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>국립중앙의료원</t>
+          <t>동국대</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>37.5665160</t>
+          <t>37.561542</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>127.0062376</t>
+          <t>126.998437</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 251 (을지로6가)</t>
+          <t>서울특별시 중구 서애로 1길 11</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -15604,27 +15604,27 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>동국대</t>
+          <t>신세계본점5F</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>37.561542</t>
+          <t>37.560951</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>126.998437</t>
+          <t>126.981134</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>서울특별시 중구 서애로 1길 11</t>
+          <t>서울특별시 중구 소공로 63 (충무로1가)</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -15636,27 +15636,27 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>신세계본점5F</t>
+          <t>동대문공원</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>37.560951</t>
+          <t>37.565133</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>126.981134</t>
+          <t>127.007191</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>서울특별시 중구 소공로 63 (충무로1가)</t>
+          <t>서울특별시 중구 장충단로 229 (광희동1가)</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -15668,27 +15668,27 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>동대문공원</t>
+          <t>을지로국제빌딩</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>37.565133</t>
+          <t>37.566952</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>127.007191</t>
+          <t>126.982219</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>서울특별시 중구 장충단로 229 (광희동1가)</t>
+          <t>서울특별시 중구 남대문로 109 (다동)</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -15700,27 +15700,27 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>을지로국제빌딩</t>
+          <t>동대입구역</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>37.566952</t>
+          <t>37.559593</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>126.982219</t>
+          <t>127.006142</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>서울특별시 중구 남대문로 109 (다동)</t>
+          <t>서울특별시 중구 장충단로 166 (장충동1가)</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -15732,27 +15732,27 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>동대입구역</t>
+          <t>신당역사거리</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>37.559593</t>
+          <t>37.565807</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>127.006142</t>
+          <t>127.016430</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>서울특별시 중구 장충단로 166 (장충동1가)</t>
+          <t>서울특별시 중구 다산로 258 (흥인동)</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -15764,27 +15764,27 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>신당역사거리</t>
+          <t>연세세브란스</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>37.565807</t>
+          <t>37.557207</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>127.016430</t>
+          <t>126.97354</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>서울특별시 중구 다산로 258 (흥인동)</t>
+          <t>서울특별시 중구 통일로 10 (남대문로5가)</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -15796,27 +15796,27 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>연세세브란스</t>
+          <t>회현역</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>37.557207</t>
+          <t>37.5589809</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>126.97354</t>
+          <t>126.98074670000005</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>서울특별시 중구 통일로 10 (남대문로5가)</t>
+          <t>서울특별시 중구 퇴계로 72 (회현동) 리더스뷰남산</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -15828,27 +15828,27 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>회현역</t>
+          <t>을지로경기빌딩</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>37.5589809</t>
+          <t>37.567172</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>126.98074670000005</t>
+          <t>126.983156</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 72 (회현동) 리더스뷰남산</t>
+          <t>서울특별시 중구 남대문로10길 9 (삼각동) 경기빌딩</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -15860,27 +15860,27 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>을지로경기빌딩</t>
+          <t>을지로2가</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>37.567172</t>
+          <t>37.566347</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>126.983156</t>
+          <t>126.988066</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>서울특별시 중구 남대문로10길 9 (삼각동) 경기빌딩</t>
+          <t>서울특별시 중구 삼일대로 358 (을지로2가)</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -15892,27 +15892,27 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>을지로2가</t>
+          <t>신세계본점6F</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>37.566347</t>
+          <t>37.560381</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>126.988066</t>
+          <t>126.980758</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>서울특별시 중구 삼일대로 358 (을지로2가)</t>
+          <t>서울특별시 중구 퇴계로 77 (충무로1가)</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -15924,27 +15924,27 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>신세계본점6F</t>
+          <t>서울중앙우체국</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>37.560381</t>
+          <t>37.561678</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>126.980758</t>
+          <t>126.982117</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 77 (충무로1가)</t>
+          <t>서울특별시 중구 소공로 70 (충무로 1가) 서울 중앙 우체국</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -15956,27 +15956,27 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>서울중앙우체국</t>
+          <t>한국프레스센터</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>37.561678</t>
+          <t>37.567381</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>126.982117</t>
+          <t>126.977859</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>서울특별시 중구 소공로 70 (충무로 1가) 서울 중앙 우체국</t>
+          <t>서울특별시 중구 세종대로 124 (태평로1가)</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -15988,27 +15988,27 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>한국프레스센터</t>
+          <t>명동중앙로</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>37.567381</t>
+          <t>37.5637485</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>126.977859</t>
+          <t>126.9857723</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 124 (태평로1가)</t>
+          <t>서울특별시 중구 명동길 60 (명동 2가)</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -16020,27 +16020,27 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>명동중앙로</t>
+          <t>약수역</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>37.5637485</t>
+          <t>37.555437</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>126.9857723</t>
+          <t>127.0107253</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>서울특별시 중구 명동길 60 (명동 2가)</t>
+          <t>서울특별시 중구 다산로 129 (신당동)</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -16052,27 +16052,27 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>약수역</t>
+          <t>중구저동</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>37.555437</t>
+          <t>37.5643686</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>127.0107253</t>
+          <t>126.9903382</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>서울특별시 중구 다산로 129 (신당동)</t>
+          <t>서울특별시 중구 수표로 34 (저동2가)</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -16084,27 +16084,27 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>중구저동</t>
+          <t>명동길</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>37.5643686</t>
+          <t>37.5620695</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>126.9903382</t>
+          <t>126.9858669</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>서울특별시 중구 수표로 34 (저동2가)</t>
+          <t>서울특별시 중구 명동10길 41</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -16116,27 +16116,27 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>명동길</t>
+          <t>서소문로</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>37.5620695</t>
+          <t>37.563006</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>126.9858669</t>
+          <t>126.974546</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>서울특별시 중구 명동10길 41</t>
+          <t>서울특별시 중구 서소문로 120 (서소문동) 대한빌딩</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -16148,27 +16148,27 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>서소문로</t>
+          <t>신당역</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>37.563006</t>
+          <t>37.565522</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>126.974546</t>
+          <t>127.014554</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>서울특별시 중구 서소문로 120 (서소문동) 대한빌딩</t>
+          <t>서울특별시 중구 퇴계로 385, 1층 (흥인동)</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -16180,27 +16180,27 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>신당역</t>
+          <t>명동메트로</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>37.565522</t>
+          <t>37.565118</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>127.014554</t>
+          <t>126.983681</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 385, 1층 (흥인동)</t>
+          <t>서울특별시 중구 명동9가길 14 (을지로1가) 메트로호텔</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -16212,27 +16212,27 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>명동메트로</t>
+          <t>숭례문</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>37.565118</t>
+          <t>37.55874473</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>126.983681</t>
+          <t>126.9730952</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>서울특별시 중구 명동9가길 14 (을지로1가) 메트로호텔</t>
+          <t>서울특별시 중구 세종대로 17, 와이즈타워 1층 (남대문로5가)</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -16244,27 +16244,27 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>숭례문</t>
+          <t>순화동더샵</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>37.55874473</t>
+          <t>37.560072</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>126.9730952</t>
+          <t>126.971931</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 17, 와이즈타워 1층 (남대문로5가)</t>
+          <t>서울특별시 중구 칠패로 27, 1층 (순화동)</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -16276,27 +16276,27 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>순화동더샵</t>
+          <t>대한극장</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>37.560072</t>
+          <t>37.56105065</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>126.971931</t>
+          <t>126.9952735</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>서울특별시 중구 칠패로 27, 1층 (순화동)</t>
+          <t>서울특별시 중구 퇴계로 212 (필동2가) 1,2층</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -16308,27 +16308,27 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>대한극장</t>
+          <t>환구단</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>37.56105065</t>
+          <t>37.564448</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>126.9952735</t>
+          <t>126.979157</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 212 (필동2가) 1,2층</t>
+          <t>서울특별시 중구 소공로 112 (소공동)</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -16340,27 +16340,27 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>환구단</t>
+          <t>무교동</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>37.564448</t>
+          <t>37.56781712</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>126.979157</t>
+          <t>126.978738</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>서울특별시 중구 소공로 112 (소공동)</t>
+          <t>서울특별시 중구 무교로 21 (무교동) 코오롱빌딩 1층</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -16372,27 +16372,27 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>무교동</t>
+          <t>문화일보</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>37.56781712</t>
+          <t>37.56712291</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>126.978738</t>
+          <t>126.9686642</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>서울특별시 중구 무교로 21 (무교동) 코오롱빌딩 1층</t>
+          <t>서울특별시 중구 새문안로 22 (충정로1가) 문화일보</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -16404,27 +16404,27 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>문화일보</t>
+          <t>태평로</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>37.56712291</t>
+          <t>37.56248285</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>126.9686642</t>
+          <t>126.9767928</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>서울특별시 중구 새문안로 22 (충정로1가) 문화일보</t>
+          <t>서울특별시 중구 세종대로 72, 대영빌딩 1층 (태평로2가)</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -16436,27 +16436,27 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>태평로</t>
+          <t>퍼시픽타워</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>37.56248285</t>
+          <t>37.56132157</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>126.9767928</t>
+          <t>126.9730264</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 72, 대영빌딩 1층 (태평로2가)</t>
+          <t>서울특별시 중구 세종대로9길 41, 퍼시픽타워 1층 (서소문동)</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -16468,27 +16468,27 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>퍼시픽타워</t>
+          <t>남산단암</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>37.56132157</t>
+          <t>37.55853622</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>126.9730264</t>
+          <t>126.9754585</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로9길 41, 퍼시픽타워 1층 (서소문동)</t>
+          <t>서울특별시 중구 소월로 10, 단암빌딩 (남대문로5가)</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -16500,27 +16500,27 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>남산단암</t>
+          <t>황학캐슬</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>37.55853622</t>
+          <t>37.57124</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>126.9754585</t>
+          <t>127.022905</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>서울특별시 중구 소월로 10, 단암빌딩 (남대문로5가)</t>
+          <t>서울특별시 중구 청계천로 400 (황학동) 롯데캐슬베네치아</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -16532,27 +16532,27 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>황학캐슬</t>
+          <t>을지로삼화타워</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>37.57124</t>
+          <t>37.566902</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>127.022905</t>
+          <t>126.984707</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>서울특별시 중구 청계천로 400 (황학동) 롯데캐슬베네치아</t>
+          <t>서울특별시 중구 을지로5길 16 (을지로2가) 1층</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -16564,27 +16564,27 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>을지로삼화타워</t>
+          <t>소공로</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>37.566902</t>
+          <t>37.5637273</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>126.984707</t>
+          <t>126.98076809999998</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로5길 16 (을지로2가) 1층</t>
+          <t>서울특별시 중구 남대문로7길 19, 삼영빌딩 1층 일부 (소공동)</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -16596,27 +16596,27 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>소공로</t>
+          <t>을지로한국빌딩</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>37.5637273</t>
+          <t>37.565722</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>126.98076809999998</t>
+          <t>126.98329</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>서울특별시 중구 남대문로7길 19, 삼영빌딩 1층 일부 (소공동)</t>
+          <t>서울특별시 중구 을지로 50, 1층 (을지로 2가)</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -16628,27 +16628,27 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>을지로한국빌딩</t>
+          <t>시청</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>37.565722</t>
+          <t>37.56629</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>126.98329</t>
+          <t>126.979808</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 50, 1층 (을지로 2가)</t>
+          <t>서울특별시 중구 을지로 19, 삼성화재삼성빌딩 1층 (을지로1가)</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -16660,27 +16660,27 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>시청</t>
+          <t>명동역</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>37.56629</t>
+          <t>37.56102</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>126.979808</t>
+          <t>126.98312</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 19, 삼성화재삼성빌딩 1층 (을지로1가)</t>
+          <t>서울특별시 중구 퇴계로 101, 건물 전체 (충무로 1가)</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -16692,27 +16692,27 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>명동역</t>
+          <t>명동입구</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>37.56102</t>
+          <t>37.563319</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>126.98312</t>
+          <t>126.982242</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 101, 건물 전체 (충무로 1가)</t>
+          <t>서울특별시 중구 남대문로 68-1 (명동2가)</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -16724,27 +16724,27 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>명동입구</t>
+          <t>충무로</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>37.563319</t>
+          <t>37.5614959808102</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>126.982242</t>
+          <t>126.992823097196</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>서울특별시 중구 남대문로 68-1 (명동2가)</t>
+          <t>서울특별시 중구 충무로 3 (필동1가)</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -16756,27 +16756,27 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>충무로</t>
+          <t>이마트타워</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>37.5614959808102</t>
+          <t>37.5607434636967</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>126.992823097196</t>
+          <t>126.972528391958</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>서울특별시 중구 충무로 3 (필동1가)</t>
+          <t>서울특별시 중구 세종대로7길 37 (순화동) 1층</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -16788,27 +16788,27 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>이마트타워</t>
+          <t>동호로</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>37.5607434636967</t>
+          <t>37.553478403261</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>126.972528391958</t>
+          <t>127.011305155237</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로7길 37 (순화동) 1층</t>
+          <t>서울특별시 중구 동호로 171 (신당동)</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -16820,27 +16820,27 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>동호로</t>
+          <t>무교로</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>37.553478403261</t>
+          <t>37.567399</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>127.011305155237</t>
+          <t>126.978900</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>서울특별시 중구 동호로 171 (신당동)</t>
+          <t>서울특별시 중구 무교로 15 (무교동)</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -16852,27 +16852,27 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>무교로</t>
+          <t>청계크리스탈스퀘어</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>37.567399</t>
+          <t>37.5679</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>126.978900</t>
+          <t>126.98933</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>서울특별시 중구 무교로 15 (무교동)</t>
+          <t>서울특별시 중구 청계천로 106 (수표동)</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -16884,27 +16884,27 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>청계크리스탈스퀘어</t>
+          <t>숭례문SG타워</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>37.5679</t>
+          <t>37.5581293</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>126.98933</t>
+          <t>126.9742637</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>서울특별시 중구 청계천로 106 (수표동)</t>
+          <t>서울특별시 중구 세종대로 14 (남대문로5가)</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -16916,27 +16916,27 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>숭례문SG타워</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>37.5581293</t>
+          <t>37.568678</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>126.9742637</t>
+          <t>126.976493</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 14 (남대문로5가)</t>
+          <t>서울특별시 중구 세종대로 135-5 (태평로1가)</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -16948,27 +16948,27 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>동대문디자인플라자</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>37.568678</t>
+          <t>37.56743</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>126.976493</t>
+          <t>127.009758</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 135-5 (태평로1가)</t>
+          <t>서울특별시 중구 을지로 281 (을지로7가) 디자인장터</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -16980,27 +16980,27 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>동대문디자인플라자</t>
+          <t>별다방</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>37.56743</t>
+          <t>37.5602013</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>127.009758</t>
+          <t>126.9829327</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 281 (을지로7가) 디자인장터</t>
+          <t>서울특별시 중구 퇴계로 100 (회현동2가)</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -17012,27 +17012,27 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>별다방</t>
+          <t>포포인츠명동</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>37.5602013</t>
+          <t>37.5657211</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>126.9829327</t>
+          <t>126.9893426</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 100 (회현동2가)</t>
+          <t>서울특별시 중구 삼일대로10길 36 (저동2가)</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -17044,27 +17044,27 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>포포인츠명동</t>
+          <t>명동남산</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>37.5657211</t>
+          <t>37.560809</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>126.9893426</t>
+          <t>126.986397</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>서울특별시 중구 삼일대로10길 36 (저동2가)</t>
+          <t>서울특별시 중구 퇴계로 132 (남산동3가)</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -17076,27 +17076,27 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>명동남산</t>
+          <t>대우재단빌딩</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>37.560809</t>
+          <t>37.556781</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>126.986397</t>
+          <t>126.975081</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 132 (남산동3가)</t>
+          <t>서울특별시 중구 퇴계로 18 (남대문로5가)</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -17108,27 +17108,27 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>대우재단빌딩</t>
+          <t>명일역</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>37.556781</t>
+          <t>37.552580</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>126.975081</t>
+          <t>127.143799</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 18 (남대문로5가)</t>
+          <t>서울특별시 강동구 양재대로 1647 (명일동)</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -17140,27 +17140,27 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>명일역</t>
+          <t>강동구청DT</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>37.552580</t>
+          <t>37.529437</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>127.143799</t>
+          <t>127.123835</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 양재대로 1647 (명일동)</t>
+          <t>서울특별시 강동구 성내로 32 (성내동)</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -17172,27 +17172,27 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>강동구청DT</t>
+          <t>강동암사DT</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>37.529437</t>
+          <t>37.555054</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>127.123835</t>
+          <t>127.130065</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 성내로 32 (성내동)</t>
+          <t>서울특별시 강동구 고덕로 43 (암사동)</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -17204,27 +17204,27 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>강동암사DT</t>
+          <t>굽은다리역</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>37.555054</t>
+          <t>37.545403</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>127.130065</t>
+          <t>127.143101</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 고덕로 43 (암사동)</t>
+          <t>서울특별시 강동구 양재대로 1568 (명일동, 원일타워)</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -17236,27 +17236,27 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>굽은다리역</t>
+          <t>강동역</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>37.545403</t>
+          <t>37.536047</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>127.143101</t>
+          <t>127.133086</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 양재대로 1568 (명일동, 원일타워)</t>
+          <t>서울특별시 강동구 천호대로 1089 (천호동, 강동 헤르셔)</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -17268,27 +17268,27 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>강동역</t>
+          <t>둔촌동</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>37.536047</t>
+          <t>37.522724</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>127.133086</t>
+          <t>127.133943</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1089 (천호동, 강동 헤르셔)</t>
+          <t>서울특별시 강동구 양재대로 1303 (성내동) 평원빌딩</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -17300,27 +17300,27 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>둔촌동</t>
+          <t>천호로데오</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>37.522724</t>
+          <t>37.5378069</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>127.133943</t>
+          <t>127.12730940000006</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 양재대로 1303 (성내동) 평원빌딩</t>
+          <t>서울특별시 강동구 천호대로 1037 (천호동)</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -17332,27 +17332,27 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>천호로데오</t>
+          <t>천호이마트</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>37.5378069</t>
+          <t>37.538933</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>127.12730940000006</t>
+          <t>127.125214</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1037 (천호동)</t>
+          <t>서울특별시 강동구 천호대로 1015-14 (천호동) 이마트별관</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -17364,27 +17364,27 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>천호이마트</t>
+          <t>길동역</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>37.538933</t>
+          <t>37.5387433</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>127.125214</t>
+          <t>127.1399879</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1015-14 (천호동) 이마트별관</t>
+          <t>서울특별시 강동구 양재대로 1487 (길동)</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -17396,27 +17396,27 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>길동역</t>
+          <t>상일동</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>37.5387433</t>
+          <t>37.5507989598659</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>127.1399879</t>
+          <t>127.174104292142</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 양재대로 1487 (길동)</t>
+          <t>서울특별시 강동구 상일로10길 36, 1~2층 (상일동)</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -17428,27 +17428,27 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>상일동</t>
+          <t>천호역</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>37.5507989598659</t>
+          <t>37.53795191</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>127.174104292142</t>
+          <t>127.1245793</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 상일로10길 36, 1~2층 (상일동)</t>
+          <t>서울특별시 강동구 천호대로 1012, 태승빌딩 (성내동)</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -17460,27 +17460,27 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>천호역</t>
+          <t>명일이마트</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>37.53795191</t>
+          <t>37.553991</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>127.1245793</t>
+          <t>127.155984</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1012, 태승빌딩 (성내동)</t>
+          <t>서울특별시 강동구 동남로75길 5 (명일동) 명일이마트별관주차장</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -17492,27 +17492,27 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>명일이마트</t>
+          <t>상일동역</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>37.553991</t>
+          <t>37.55754181615496</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>127.155984</t>
+          <t>127.17072672474717</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 동남로75길 5 (명일동) 명일이마트별관주차장</t>
+          <t>서울특별시 강동구 고덕로 399 (고덕동, 고덕센트럴푸르지오)</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -17524,27 +17524,27 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>상일동역</t>
+          <t>천호사거리</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>37.55754181615496</t>
+          <t>37.539702</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>127.17072672474717</t>
+          <t>127.123542</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 고덕로 399 (고덕동, 고덕센트럴푸르지오)</t>
+          <t>서울특별시 강동구 올림픽로 651 (천호동)</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -17556,27 +17556,27 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>천호사거리</t>
+          <t>강일역</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>37.539702</t>
+          <t>37.55747468801038</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>127.123542</t>
+          <t>127.17351070838722</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 올림픽로 651 (천호동)</t>
+          <t>서울특별시 강동구 고덕로 429 (강일동), 1층</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -17588,27 +17588,27 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>강일역</t>
+          <t>올림픽공원북2문</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>37.55747468801038</t>
+          <t>37.5241832</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>127.17351070838722</t>
+          <t>127.1286775</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 고덕로 429 (강일동), 1층</t>
+          <t>서울특별시 강동구 강동대로 199 (성내동)</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -17620,27 +17620,27 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>올림픽공원북2문</t>
+          <t>천호대로길동</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>37.5241832</t>
+          <t>37.534651</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>127.1286775</t>
+          <t>127.137210</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 강동대로 199 (성내동)</t>
+          <t>서울특별시 강동구 천호대로 1131 거산 유팰리스</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -17652,27 +17652,27 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>천호대로길동</t>
+          <t>신도림</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>37.534651</t>
+          <t>37.505517</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>127.137210</t>
+          <t>126.883953</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1131 거산 유팰리스</t>
+          <t>서울특별시 구로구 경인로 610 (신도림동)</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -17684,27 +17684,27 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>신도림</t>
+          <t>구로디지털타워</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>37.505517</t>
+          <t>37.483432</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>126.883953</t>
+          <t>126.89648</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 610 (신도림동)</t>
+          <t>서울특별시 구로구 디지털로32길 30 (구로동)</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -17716,27 +17716,27 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>구로디지털타워</t>
+          <t>오류동역</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>37.483432</t>
+          <t>37.4962155</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>126.89648</t>
+          <t>126.8448614</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로32길 30 (구로동)</t>
+          <t>서울특별시 구로구 경인로 216 (오류동)</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -17748,27 +17748,27 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>오류동역</t>
+          <t>구로디지털로</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>37.4962155</t>
+          <t>37.485911</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>126.8448614</t>
+          <t>126.895587</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 216 (오류동)</t>
+          <t>서울특별시 구로구 디지털로33길 11, 에이스테크노8차 1층 (구로동)</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -17780,27 +17780,27 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>구로디지털로</t>
+          <t>구로에이스</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>37.485911</t>
+          <t>37.48448329</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>126.895587</t>
+          <t>126.8944957</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로33길 11, 에이스테크노8차 1층 (구로동)</t>
+          <t>서울특별시 구로구 디지털로 285, 에이스트윈타워1차 103호 (구로동)</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -17812,27 +17812,27 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>구로에이스</t>
+          <t>구로하이엔드</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>37.48448329</t>
+          <t>37.481618</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>126.8944957</t>
+          <t>126.893136</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로 285, 에이스트윈타워1차 103호 (구로동)</t>
+          <t>서울특별시 구로구 디지털로26길 5, 에이스하이엔드타워1차 103호 (구로동)</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -17844,27 +17844,27 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>구로하이엔드</t>
+          <t>현대디큐브2F</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>37.481618</t>
+          <t>37.508636</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>126.893136</t>
+          <t>126.889225</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로26길 5, 에이스하이엔드타워1차 103호 (구로동)</t>
+          <t>서울특별시 구로구 경인로 662 (신도림동)</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -17876,27 +17876,27 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>현대디큐브2F</t>
+          <t>구로호텔</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>37.508636</t>
+          <t>37.4831293</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>126.889225</t>
+          <t>126.89885909999998</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 662 (신도림동)</t>
+          <t>서울특별시 구로구 디지털로32길 72, 구로호텔 1층 (구로동)</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -17908,27 +17908,27 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>구로호텔</t>
+          <t>현대디큐브B2</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>37.4831293</t>
+          <t>37.508828</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>126.89885909999998</t>
+          <t>126.889488</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로32길 72, 구로호텔 1층 (구로동)</t>
+          <t>서울특별시 구로구 경인로 662 (신도림동)</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -17940,27 +17940,27 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>현대디큐브B2</t>
+          <t>구로고척</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>37.508828</t>
+          <t>37.49706</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>126.889488</t>
+          <t>126.86315</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 662 (신도림동)</t>
+          <t>서울특별시 구로구 경인로 387 (고척동)</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -17972,27 +17972,27 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>구로고척</t>
+          <t>구로NC</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>37.49706</t>
+          <t>37.501219</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>126.86315</t>
+          <t>126.882798</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 387 (고척동)</t>
+          <t>서울특별시 구로구 구로중앙로 152 (구로동) 구로NC</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -18004,27 +18004,27 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>구로NC</t>
+          <t>구로오류DT</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>37.501219</t>
+          <t>37.4881292318832</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>126.882798</t>
+          <t>126.834491889841</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 구로중앙로 152 (구로동) 구로NC</t>
+          <t>서울특별시 구로구 서해안로 2233 (오류동)</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -18036,27 +18036,27 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>구로오류DT</t>
+          <t>구로구청</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>37.4881292318832</t>
+          <t>37.49395067031256</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>126.834491889841</t>
+          <t>126.88676120707717</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 서해안로 2233 (오류동)</t>
+          <t>서울특별시 구로구 가마산로 232 (구로동, 스페스큐브), B101호</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -18068,27 +18068,27 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>구로구청</t>
+          <t>고척아이파크</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>37.49395067031256</t>
+          <t>37.49930562934076</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>126.88676120707717</t>
+          <t>126.8582208923581</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 가마산로 232 (구로동, 스페스큐브), B101호</t>
+          <t>서울특별시 구로구 경인로43길 49 (고척동, 고척아이파크), 1층 D-101호</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -18100,27 +18100,27 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>고척아이파크</t>
+          <t>답십리역</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>37.49930562934076</t>
+          <t>37.568466</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>126.8582208923581</t>
+          <t>127.051106</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로43길 49 (고척동, 고척아이파크), 1층 D-101호</t>
+          <t>서울특별시 동대문구 천호대로 263 (답십리동)</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -18132,27 +18132,27 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>답십리역</t>
+          <t>경희대삼거리</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>37.568466</t>
+          <t>37.591531</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>127.051106</t>
+          <t>127.052017</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 천호대로 263 (답십리동)</t>
+          <t>서울특별시 동대문구 회기로 141 (회기동)</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -18164,27 +18164,27 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>경희대삼거리</t>
+          <t>외대정문</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>37.591531</t>
+          <t>37.5953464</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>127.052017</t>
+          <t>127.0590302</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 회기로 141 (회기동)</t>
+          <t>서울특별시 동대문구 이문로 93 (이문동)</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -18196,27 +18196,27 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>외대정문</t>
+          <t>신설동역</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>37.5953464</t>
+          <t>37.5767228</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>127.0590302</t>
+          <t>127.0255446</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문로 93 (이문동)</t>
+          <t>서울특별시 동대문구 왕산로 19 (신설동)</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -18228,27 +18228,27 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>신설동역</t>
+          <t>회기역사거리</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>37.5767228</t>
+          <t>37.590784</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>127.0255446</t>
+          <t>127.056098</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 왕산로 19 (신설동)</t>
+          <t>서울특별시 동대문구 이문로 37 (회기동)</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -18260,27 +18260,27 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>회기역사거리</t>
+          <t>외대</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>37.590784</t>
+          <t>37.59575188</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>127.056098</t>
+          <t>127.0614002</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문로 37 (회기동)</t>
+          <t>서울특별시 동대문구 휘경로 12-1 (이문동)</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -18292,27 +18292,27 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>외대</t>
+          <t>장한평역</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>37.59575188</t>
+          <t>37.562337</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>127.0614002</t>
+          <t>127.065511</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 휘경로 12-1 (이문동)</t>
+          <t>서울특별시 동대문구 장한로 10 (장안동)</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -18324,27 +18324,27 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>장한평역</t>
+          <t>경희대</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>37.562337</t>
+          <t>37.5928812</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>127.065511</t>
+          <t>127.05280849999997</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 장한로 10 (장안동)</t>
+          <t>서울특별시 동대문구 경희대로 16-1 (회기동)</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -18356,27 +18356,27 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>경희대</t>
+          <t>청량리역롯데캐슬스카이</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>37.5928812</t>
+          <t>37.579201572803626</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>127.05280849999997</t>
+          <t>127.04541391086886</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 경희대로 16-1 (회기동)</t>
+          <t>서울특별시 동대문구 답십리로 27 (전농동, 청량리역 롯데캐슬 SKY-L65)</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -18388,27 +18388,27 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>청량리역롯데캐슬스카이</t>
+          <t>경동1960</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>37.579201572803626</t>
+          <t>37.5796141021494</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>127.04541391086886</t>
+          <t>127.038684963773</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 답십리로 27 (전농동, 청량리역 롯데캐슬 SKY-L65)</t>
+          <t>서울특별시 동대문구 고산자로36길 3 (제기동)</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -18420,27 +18420,27 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>경동1960</t>
+          <t>청량리역사</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>37.5796141021494</t>
+          <t>37.57945</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>127.038684963773</t>
+          <t>127.04785</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 고산자로36길 3 (제기동)</t>
+          <t>서울특별시 동대문구 왕산로 214 (전농동) 청량리역사 Connect Place6층</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -18452,27 +18452,27 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>청량리역사</t>
+          <t>답십리초교사거리</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>37.57945</t>
+          <t>37.5682540295405</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>127.04785</t>
+          <t>127.057240883237</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 왕산로 214 (전농동) 청량리역사 Connect Place6층</t>
+          <t>서울특별시 동대문구 전농로 38 (답십리동)</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -18484,27 +18484,27 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>답십리초교사거리</t>
+          <t>장안사거리</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>37.5682540295405</t>
+          <t>37.5727209002351</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>127.057240883237</t>
+          <t>127.070092668638</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 전농로 38 (답십리동)</t>
+          <t>서울특별시 동대문구 답십리로 267 (장안동)</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -18516,27 +18516,27 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>장안사거리</t>
+          <t>서울숲역</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>37.5727209002351</t>
+          <t>37.542075</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>127.070092668638</t>
+          <t>127.044961</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 답십리로 267 (장안동)</t>
+          <t>서울특별시 성동구 왕십리로 50 (성수동1가) 1층</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -18548,27 +18548,27 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>서울숲역</t>
+          <t>금호역</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>37.542075</t>
+          <t>37.5479939</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>127.044961</t>
+          <t>127.0153343</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 50 (성수동1가) 1층</t>
+          <t>서울특별시 성동구 동호로 99 (금호동4가)</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -18580,27 +18580,27 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>금호역</t>
+          <t>뚝섬역</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>37.5479939</t>
+          <t>37.546432</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>127.0153343</t>
+          <t>127.049042</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 동호로 99 (금호동4가)</t>
+          <t>서울특별시 성동구 아차산로 42 (성수동1가)</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -18612,27 +18612,27 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>뚝섬역</t>
+          <t>황학사거리</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>37.546432</t>
+          <t>37.567644</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>127.049042</t>
+          <t>127.023697</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 아차산로 42 (성수동1가)</t>
+          <t>서울특별시 성동구 왕십리로 410 (하왕십리동, 센트라스)</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -18644,27 +18644,27 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>황학사거리</t>
+          <t>성수역</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>37.567644</t>
+          <t>37.543193</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>127.023697</t>
+          <t>127.056943</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 410 (하왕십리동, 센트라스)</t>
+          <t>서울특별시 성동구 성수이로 94 (성수동2가)</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -18676,27 +18676,27 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>성수역</t>
+          <t>상왕십리역</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>37.543193</t>
+          <t>37.565169</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>127.056943</t>
+          <t>127.027907</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 성수이로 94 (성수동2가)</t>
+          <t>서울특별시 성동구 왕십리로 382 (하왕십리동)</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -18708,27 +18708,27 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>상왕십리역</t>
+          <t>왕십리역</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>37.565169</t>
+          <t>37.5627541</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>127.027907</t>
+          <t>127.0339072</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 382 (하왕십리동)</t>
+          <t>서울특별시 성동구 왕십리로 326 (도선동)</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -18740,27 +18740,27 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>왕십리역</t>
+          <t>한양대</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>37.5627541</t>
+          <t>37.55726984</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>127.0339072</t>
+          <t>127.0421649</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 326 (도선동)</t>
+          <t>서울특별시 성동구 왕십리로 225 (행당동) 1,2층</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -18772,27 +18772,27 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>한양대</t>
+          <t>엔터식스</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>37.55726984</t>
+          <t>37.56175811</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>127.0421649</t>
+          <t>127.0383328</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 225 (행당동) 1,2층</t>
+          <t>서울특별시 성동구 왕십리광장로 17 (행당동)</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -18804,27 +18804,27 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>엔터식스</t>
+          <t>신금호역</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>37.56175811</t>
+          <t>37.5549672</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>127.0383328</t>
+          <t>127.0201447</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리광장로 17 (행당동)</t>
+          <t>서울특별시 성동구 금호로 158-1 (금호동1가) 1~5층 전체</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -18836,27 +18836,27 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>신금호역</t>
+          <t>왕십리역9번출구</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>37.5549672</t>
+          <t>37.5605427226347</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>127.0201447</t>
+          <t>127.035267332652</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 금호로 158-1 (금호동1가) 1~5층 전체</t>
+          <t>서울특별시 성동구 고산자로 234 (행당동)</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -18868,27 +18868,27 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>왕십리역9번출구</t>
+          <t>성수</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>37.5605427226347</t>
+          <t>37.5444620830457</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>127.035267332652</t>
+          <t>127.055413311106</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 고산자로 234 (행당동)</t>
+          <t>서울특별시 성동구 아차산로 104 (성수동2가)</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -18900,27 +18900,27 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>성수</t>
+          <t>옥수</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>37.5444620830457</t>
+          <t>37.5430298</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>127.055413311106</t>
+          <t>127.0133661</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 아차산로 104 (성수동2가)</t>
+          <t>서울특별시 성동구 독서당로 202 (옥수동)</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -18932,27 +18932,27 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>옥수</t>
+          <t>성수낙낙</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>37.5430298</t>
+          <t>37.547326</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>127.0133661</t>
+          <t>127.066367</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 독서당로 202 (옥수동)</t>
+          <t>서울특별시 성동구 광나루로8길 31 (성수동2가) 성수낙낙 1층 101~107호</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -18964,27 +18964,27 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>성수낙낙</t>
+          <t>효창공원앞역</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>37.547326</t>
+          <t>37.539305</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>127.066367</t>
+          <t>126.963060</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 광나루로8길 31 (성수동2가) 성수낙낙 1층 101~107호</t>
+          <t>서울특별시 용산구 백범로 313 (효창동, 용산 롯데캐슬 센터포레)</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -18996,27 +18996,27 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>효창공원앞역</t>
+          <t>서울역서부</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>37.539305</t>
+          <t>37.555165</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>126.963060</t>
+          <t>126.968446</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 백범로 313 (효창동, 용산 롯데캐슬 센터포레)</t>
+          <t>서울특별시 용산구 만리재로 202 (서계동)</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -19028,27 +19028,27 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>서울역서부</t>
+          <t>이태원역</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>37.555165</t>
+          <t>37.534273</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>126.968446</t>
+          <t>126.994789</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 만리재로 202 (서계동)</t>
+          <t>서울특별시 용산구 이태원로 188 (이태원동)</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
@@ -19060,27 +19060,27 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>이태원역</t>
+          <t>한강진역R</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>37.534273</t>
+          <t>37.537131</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>126.994789</t>
+          <t>127.00098</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이태원로 188 (이태원동)</t>
+          <t>서울특별시 용산구 이태원로 252 (한남동)</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -19092,27 +19092,27 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>한강진역R</t>
+          <t>용산역써밋R</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>37.537131</t>
+          <t>37.527586</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>127.00098</t>
+          <t>126.965401</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이태원로 252 (한남동)</t>
+          <t>서울특별시 용산구 한강대로 69 (한강로2가, 용산푸르지오써밋)</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -19124,27 +19124,27 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>용산역써밋R</t>
+          <t>이촌</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>37.527586</t>
+          <t>37.518605</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>126.965401</t>
+          <t>126.977271</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 69 (한강로2가, 용산푸르지오써밋)</t>
+          <t>서울특별시 용산구 이촌로 276 (이촌동)</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -19156,27 +19156,27 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>이촌</t>
+          <t>신용산역</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>37.518605</t>
+          <t>37.528702</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>126.977271</t>
+          <t>126.966757</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이촌로 276 (이촌동)</t>
+          <t>서울특별시 용산구 한강대로 95 (한강로2가, 래미안용산)</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -19188,27 +19188,27 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>신용산역</t>
+          <t>용산파크타워</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>37.528702</t>
+          <t>37.523818</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>126.966757</t>
+          <t>126.970389</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 95 (한강로2가, 래미안용산)</t>
+          <t>서울특별시 용산구 서빙고로 67 (용산동5가, 파크타워)</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -19220,27 +19220,27 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>용산파크타워</t>
+          <t>남영동</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>37.523818</t>
+          <t>37.542831</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>126.970389</t>
+          <t>126.972242</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 서빙고로 67 (용산동5가, 파크타워)</t>
+          <t>서울특별시 용산구 한강대로 275 (갈월동)</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -19252,27 +19252,27 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>남영동</t>
+          <t>한남동R</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>37.542831</t>
+          <t>37.53485</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>126.972242</t>
+          <t>127.010919</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 275 (갈월동)</t>
+          <t>서울특별시 용산구 독서당로 94 (한남동)</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -19284,27 +19284,27 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>한남동R</t>
+          <t>서울타워</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>37.53485</t>
+          <t>37.551102</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>127.010919</t>
+          <t>126.988317</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 독서당로 94 (한남동)</t>
+          <t>서울특별시 용산구 남산공원길 105 (용산동2가) YTN서울타워 1층</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -19316,27 +19316,27 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>서울타워</t>
+          <t>서울역동자동</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>37.551102</t>
+          <t>37.551752</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>126.988317</t>
+          <t>126.972694</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 남산공원길 105 (용산동2가) YTN서울타워 1층</t>
+          <t>서울특별시 용산구 한강대로 372 (동자동)</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -19348,27 +19348,27 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>서울역동자동</t>
+          <t>순천향입구</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>37.551752</t>
+          <t>37.533394</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>126.972694</t>
+          <t>127.00563</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 372 (동자동)</t>
+          <t>서울특별시 용산구 대사관로 67 (한남동)</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -19380,27 +19380,27 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>순천향입구</t>
+          <t>숙대</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>37.533394</t>
+          <t>37.54460479</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>127.00563</t>
+          <t>126.9672252</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 대사관로 67 (한남동)</t>
+          <t>서울특별시 용산구 청파로47길 57 (청파동3가)</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -19412,27 +19412,27 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>숙대</t>
+          <t>동빙고</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>37.54460479</t>
+          <t>37.5289857</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>126.9672252</t>
+          <t>126.991782</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 청파로47길 57 (청파동3가)</t>
+          <t>서울특별시 용산구 장문로 12 (동빙고동)</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -19444,27 +19444,27 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>동빙고</t>
+          <t>숙대입구역</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>37.5289857</t>
+          <t>37.544118</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>126.991782</t>
+          <t>126.971891</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 장문로 12 (동빙고동)</t>
+          <t>서울특별시 용산구 한강대로 291 (갈월동)</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -19476,27 +19476,27 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>숙대입구역</t>
+          <t>용산아이파크몰</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>37.544118</t>
+          <t>37.5288539</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>126.971891</t>
+          <t>126.96404469999993</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 291 (갈월동)</t>
+          <t>서울특별시 용산구 한강대로23길 55</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
@@ -19508,27 +19508,27 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>용산아이파크몰</t>
+          <t>동부이촌동</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>37.5288539</t>
+          <t>37.52111</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>126.96404469999993</t>
+          <t>126.96905</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로23길 55</t>
+          <t>서울특별시 용산구 이촌로 198 (이촌동)</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -19540,27 +19540,27 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>동부이촌동</t>
+          <t>숙명여대정문</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>37.52111</t>
+          <t>37.54474797</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>126.96905</t>
+          <t>126.96484196</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이촌로 198 (이촌동)</t>
+          <t>서울특별시 용산구 청파로47길 100 (청파동2가) 프라임관B1F(로비층)</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -19572,27 +19572,27 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>숙명여대정문</t>
+          <t>용산해링턴스퀘어</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>37.54474797</t>
+          <t>37.5258562</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>126.96484196</t>
+          <t>126.9676442</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 청파로47길 100 (청파동2가) 프라임관B1F(로비층)</t>
+          <t>서울특별시 용산구 서빙고로 17 (한강로3가)</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -19604,27 +19604,27 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>용산해링턴스퀘어</t>
+          <t>경리단길</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>37.5258562</t>
+          <t>37.53854</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>126.9676442</t>
+          <t>126.98737</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 서빙고로 17 (한강로3가)</t>
+          <t>서울특별시 용산구 회나무로 3 (이태원동)</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
@@ -19636,27 +19636,27 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>경리단길</t>
+          <t>서울역사</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>37.53854</t>
+          <t>37.55415699928705</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>126.98737</t>
+          <t>126.97179361292846</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 회나무로 3 (이태원동)</t>
+          <t>서울특별시 용산구 한강대로 405 (동자동) 신-101호</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -19668,27 +19668,27 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>서울역사</t>
+          <t>용산리첸시아</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>37.55415699928705</t>
+          <t>37.538571</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>126.97179361292846</t>
+          <t>126.967409</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 405 (동자동) 신-101호</t>
+          <t>서울특별시 용산구 백범로 341 (원효로1가, 리첸시아 용산)</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -19700,27 +19700,27 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>용산리첸시아</t>
+          <t>용산전자랜드</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>37.538571</t>
+          <t>37.53286105987034</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>126.967409</t>
+          <t>126.96100091132484</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 백범로 341 (원효로1가, 리첸시아 용산)</t>
+          <t>서울특별시 용산구 청파로 74 (한강로3가)</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
@@ -19732,27 +19732,27 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>용산전자랜드</t>
+          <t>상봉</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>37.53286105987034</t>
+          <t>37.597842</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>126.96100091132484</t>
+          <t>127.092509</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 청파로 74 (한강로3가)</t>
+          <t>서울특별시 중랑구 상봉로 131 (상봉동, 상봉 듀오트리스 주상복합)</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -19764,27 +19764,27 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>상봉</t>
+          <t>중랑역</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>37.597842</t>
+          <t>37.5930326</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>127.092509</t>
+          <t>127.07473579999998</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 상봉로 131 (상봉동, 상봉 듀오트리스 주상복합)</t>
+          <t>서울특별시 중랑구 망우로30길 3 (상봉동)</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -19796,27 +19796,27 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>중랑역</t>
+          <t>중랑구청</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>37.5930326</t>
+          <t>37.60538908</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>127.07473579999998</t>
+          <t>127.0957558</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 망우로30길 3 (상봉동)</t>
+          <t>서울특별시 중랑구 신내로 72</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -19828,27 +19828,27 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>중랑구청</t>
+          <t>사가정역</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>37.60538908</t>
+          <t>37.579594</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>127.0957558</t>
+          <t>127.087966</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 신내로 72</t>
+          <t>서울특별시 중랑구 면목로 310</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
@@ -19860,27 +19860,27 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>사가정역</t>
+          <t>상봉역</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>37.579594</t>
+          <t>37.59689</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>127.087966</t>
+          <t>127.08647</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 면목로 310</t>
+          <t>서울특별시 중랑구 망우로 307 (상봉동)</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
@@ -19892,27 +19892,27 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>상봉역</t>
+          <t>묵동</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>37.59689</t>
+          <t>37.615368</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>127.08647</t>
+          <t>127.076633</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 망우로 307 (상봉동)</t>
+          <t>서울특별시 중랑구 동일로 952 (묵동, 로프트원 태릉입구역) 1층</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -19924,27 +19924,27 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>묵동</t>
+          <t>양원역</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>37.615368</t>
+          <t>37.6066536267232</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>127.076633</t>
+          <t>127.106359790053</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 동일로 952 (묵동, 로프트원 태릉입구역) 1층</t>
+          <t>서울특별시 중랑구 양원역로10길 3 (망우동)</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -19956,62 +19956,30 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>양원역</t>
+          <t>중화역</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>37.6066536267232</t>
+          <t>37.60170912407773</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>127.106359790053</t>
+          <t>127.07841136432036</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 양원역로10길 3 (망우동)</t>
+          <t>서울특별시 중랑구 봉화산로 35 1층</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
-        <is>
-          <t>1522-3232</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>중화역</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>37.60170912407773</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>127.07841136432036</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>리저브 매장 2번</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>서울특별시 중랑구 봉화산로 35 1층</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr">
         <is>
           <t>1522-3232</t>
         </is>
